--- a/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8311302489975085</v>
+        <v>0.8335304863691453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8751816258533788</v>
+        <v>0.8713145948919264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8671912119689487</v>
+        <v>0.8685089640534335</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9070835696620512</v>
+        <v>0.9115381247827717</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9241197446661195</v>
+        <v>0.9227542647265394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9097868499606755</v>
+        <v>0.9124452987882954</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7507421863453794</v>
+        <v>0.7507421863453793</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7477581793776242</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7493089980946461</v>
+        <v>0.749308998094646</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7192811822561294</v>
+        <v>0.7192493686740814</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7224667607717067</v>
+        <v>0.7226443253228828</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7284421438607174</v>
+        <v>0.7284031730511451</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7793747206232557</v>
+        <v>0.7802270201464214</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7694042737971355</v>
+        <v>0.7720714944909514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7682237917632472</v>
+        <v>0.7688899231300631</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.5838067177234607</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6764113918214757</v>
+        <v>0.6764113918214758</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6312157087051822</v>
+        <v>0.6312157087051823</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5309453347893162</v>
+        <v>0.5229952289225924</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6311817841644135</v>
+        <v>0.631500539982822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5952692075457269</v>
+        <v>0.5971129620987792</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6350654534377267</v>
+        <v>0.6339071448993151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7169965189682991</v>
+        <v>0.7164382986742458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6646130573322415</v>
+        <v>0.6651403107553384</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7388428921338845</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7683010794615731</v>
+        <v>0.768301079461573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7537947668262578</v>
+        <v>0.7537947668262579</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7163254026829579</v>
+        <v>0.7134457208064179</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7514697564765195</v>
+        <v>0.749287079680771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7375767166009086</v>
+        <v>0.7387577421604039</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7616873398800702</v>
+        <v>0.7613917880196095</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7859285695942959</v>
+        <v>0.7848019930683956</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7665318897757696</v>
+        <v>0.7680130244944546</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>242823</v>
+        <v>243524</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>366220</v>
+        <v>364602</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>616235</v>
+        <v>617171</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>265014</v>
+        <v>266315</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>386698</v>
+        <v>386127</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>646504</v>
+        <v>648393</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>834565</v>
+        <v>834528</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>774679</v>
+        <v>774869</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1626281</v>
+        <v>1626194</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>904291</v>
+        <v>905279</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>825008</v>
+        <v>827868</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1715096</v>
+        <v>1716583</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>184053</v>
+        <v>181297</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>229515</v>
+        <v>229631</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>422808</v>
+        <v>424117</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>220147</v>
+        <v>219745</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>260720</v>
+        <v>260517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>472061</v>
+        <v>472436</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1288733</v>
+        <v>1283552</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1393486</v>
+        <v>1389439</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2694690</v>
+        <v>2699005</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1370343</v>
+        <v>1369812</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1457385</v>
+        <v>1455296</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2800476</v>
+        <v>2805887</v>
       </c>
     </row>
     <row r="20">
